--- a/3_output/reactome_all.xlsx
+++ b/3_output/reactome_all.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="DT vs PBS" sheetId="1" r:id="rId1"/>
-    <sheet name="Treg vs PBS" sheetId="2" r:id="rId2"/>
-    <sheet name="Treg vs DT" sheetId="3" r:id="rId3"/>
+    <sheet name="DT vs veh" sheetId="1" r:id="rId1"/>
+    <sheet name="DT+Treg vs veh" sheetId="2" r:id="rId2"/>
+    <sheet name="DT+Treg vs DT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.02273950490648746</v>
+        <v>0.02273950490648747</v>
       </c>
       <c r="F23">
         <v>0.5582030400972759</v>

--- a/3_output/reactome_all.xlsx
+++ b/3_output/reactome_all.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>6.978348335810369e-06</v>
+        <v>6.978348335810369E-06</v>
       </c>
       <c r="F2">
         <v>0.003949745158068669</v>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>7.255605121471552e-05</v>
+        <v>7.255605121471552E-05</v>
       </c>
       <c r="F3">
         <v>0.0173871859623237</v>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>9.215822948228111e-05</v>
+        <v>9.215822948228111E-05</v>
       </c>
       <c r="F4">
         <v>0.0173871859623237</v>
@@ -22668,13 +22668,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>1.48086252670014e-07</v>
+        <v>1.48086252670014E-07</v>
       </c>
       <c r="F2">
-        <v>7.452368990098978e-05</v>
+        <v>7.452368990098978E-05</v>
       </c>
       <c r="G2">
-        <v>7.360364434665656e-05</v>
+        <v>7.360364434665656E-05</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -22707,13 +22707,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>2.300113885833018e-07</v>
+        <v>2.300113885833018E-07</v>
       </c>
       <c r="F3">
-        <v>7.452368990098978e-05</v>
+        <v>7.452368990098978E-05</v>
       </c>
       <c r="G3">
-        <v>7.360364434665656e-05</v>
+        <v>7.360364434665656E-05</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
